--- a/data/georgia_census/samegrelo/poti/average_wages.xlsx
+++ b/data/georgia_census/samegrelo/poti/average_wages.xlsx
@@ -1106,13 +1106,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A8C5F28-4C76-4EC6-B6AB-B63A0E2A4446}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B1E047E-22F0-4927-A6F6-29890B219920}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A85297E3-0413-4F41-B386-B76E862CC7DC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88981123-A3BA-4E6C-946A-A2EC1CE8D74E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE95BD5F-4EA5-4701-9F9A-46761C3D5D04}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{131EB952-4ACB-4153-A04E-9B9E51622F08}"/>
 </file>